--- a/ig/ch-vacd/CodeSystem-ch-vacd-swissmedic-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-swissmedic-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="302">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T13:48:44+01:00</t>
+    <t>2023-06-29T17:22:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -132,7 +132,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>101</t>
+    <t>108</t>
   </si>
   <si>
     <t>Level</t>
@@ -783,7 +783,7 @@
     <t>Nuvaxovid 5 ml</t>
   </si>
   <si>
-    <t>Nuvaxovid 5 ml, Injektionsdispersion	Future Health Pharma GmbH</t>
+    <t>Nuvaxovid 5 ml	Future Health Pharma GmbH</t>
   </si>
   <si>
     <t>68358</t>
@@ -856,6 +856,69 @@
   </si>
   <si>
     <t>MenQuadfi, solution injectable, Sanofi-Aventis (Suisse) SA</t>
+  </si>
+  <si>
+    <t>69123</t>
+  </si>
+  <si>
+    <t>Spikevax Bivalent Original / Omicron 10 mg/ml, Fertigspritze</t>
+  </si>
+  <si>
+    <t>Spikevax Bivalent Original / Omicron 10 mg/ml, Fertigspritze, Moderna Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>69010</t>
+  </si>
+  <si>
+    <t>Spikevax, Fertigspritze</t>
+  </si>
+  <si>
+    <t>Spikevax, Fertigspritze,	Moderna Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>69047</t>
+  </si>
+  <si>
+    <t>Comirnaty® Original/Omicron BA.1 15/15 µg pro Dosis</t>
+  </si>
+  <si>
+    <t>Comirnaty® Original/Omicron BA.1 15/15 µg pro Dosis, gebrauchsfertige Injektionsdispersion für Personen ab 18 Jahren, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69127</t>
+  </si>
+  <si>
+    <t>Comirnaty Original/Omicron BA. 4-5 0.225 mg</t>
+  </si>
+  <si>
+    <t>Comirnaty Original/Omicron BA. 4-5 0.225 mg, Injektionsdispersion,	Pfizer AG</t>
+  </si>
+  <si>
+    <t>69189</t>
+  </si>
+  <si>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5, dispersion for injection</t>
+  </si>
+  <si>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5, dispersion for injection,	Moderna Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>69211</t>
+  </si>
+  <si>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5, Fertigspritze</t>
+  </si>
+  <si>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5, Fertigspritze,	Moderna Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>68752</t>
+  </si>
+  <si>
+    <t>Vaxneuvance, Injektionssuspension</t>
+  </si>
+  <si>
+    <t>Vaxneuvance, Injektionssuspension,	MSD Merck Sharp &amp; Dohme AG</t>
   </si>
 </sst>
 </file>
@@ -977,10 +1040,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1178,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2478,6 +2541,104 @@
         <v>280</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-vacd/CodeSystem-ch-vacd-swissmedic-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-swissmedic-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
